--- a/Shop Files/newton.xlsx
+++ b/Shop Files/newton.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="409" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="411" xml:space="preserve">
   <si>
     <t>Inventory Status</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>06/09/2025 07:03 PM</t>
+      <t>06/17/2025 08:16 PM</t>
     </r>
   </si>
   <si>
@@ -872,6 +872,12 @@
   </si>
   <si>
     <t>Mastercraft RH Front Door</t>
+  </si>
+  <si>
+    <t>Pella screens</t>
+  </si>
+  <si>
+    <t>Screens</t>
   </si>
   <si>
     <t>Plastic Universal outlet cover-clear</t>
@@ -1457,7 +1463,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:O187"/>
+  <dimension ref="A1:O188"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1990,7 +1996,7 @@
         <v>1.81</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>21.72</v>
+        <v>19.91</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>1.81</v>
@@ -2005,7 +2011,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -2033,7 +2039,7 @@
         <v>6.71</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>67.1</v>
+        <v>60.39</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>6.71</v>
@@ -2048,7 +2054,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>34</v>
@@ -2158,7 +2164,7 @@
         <v>647.35</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>647.35</v>
+        <v>0.0</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>647.35</v>
@@ -2173,7 +2179,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
@@ -2291,7 +2297,7 @@
         <v>534.99</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>68478.72</v>
+        <v>66338.76</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>534.99</v>
@@ -2306,7 +2312,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>128.0</v>
+        <v>124.0</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>23</v>
@@ -2735,7 +2741,7 @@
         <v>32.07</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>256.56</v>
+        <v>192.42</v>
       </c>
       <c r="G33" s="9" t="n">
         <v>32.07</v>
@@ -2750,7 +2756,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>34</v>
@@ -2866,7 +2872,7 @@
         <v>1.11</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>47.73</v>
+        <v>45.51</v>
       </c>
       <c r="G36" s="9" t="n">
         <v>1.11</v>
@@ -2881,7 +2887,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>94</v>
@@ -5354,7 +5360,7 @@
         <v>235.56</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>471.12</v>
+        <v>235.56</v>
       </c>
       <c r="G94" s="9" t="n">
         <v>235.56</v>
@@ -5369,7 +5375,7 @@
         <v>0.0</v>
       </c>
       <c r="K94" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>56</v>
@@ -5397,7 +5403,7 @@
         <v>8.54</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>17.08</v>
+        <v>0.0</v>
       </c>
       <c r="G95" s="9" t="n">
         <v>8.54</v>
@@ -5412,7 +5418,7 @@
         <v>0.0</v>
       </c>
       <c r="K95" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>28</v>
@@ -6532,21 +6538,23 @@
       <c r="B122" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C122" s="7"/>
+      <c r="C122" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="D122" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E122" s="9" t="n">
-        <v>5.34</v>
+        <v>42.8</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>10.68</v>
+        <v>642.0</v>
       </c>
       <c r="G122" s="9" t="n">
-        <v>5.34</v>
+        <v>42.8</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="I122" s="9" t="n">
         <v>0.0</v>
@@ -6555,23 +6563,21 @@
         <v>0.0</v>
       </c>
       <c r="K122" s="9" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="L122" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="M122" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N122" s="7"/>
       <c r="O122" s="7" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="7" t="s">
-        <v>273</v>
-      </c>
+      <c r="A123" s="7"/>
       <c r="B123" s="7" t="s">
         <v>274</v>
       </c>
@@ -6580,16 +6586,16 @@
         <v>210</v>
       </c>
       <c r="E123" s="9" t="n">
-        <v>272.85</v>
+        <v>5.34</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>818.55</v>
+        <v>10.68</v>
       </c>
       <c r="G123" s="9" t="n">
-        <v>272.85</v>
+        <v>5.34</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="I123" s="9" t="n">
         <v>0.0</v>
@@ -6598,10 +6604,10 @@
         <v>0.0</v>
       </c>
       <c r="K123" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M123" s="7" t="s">
         <v>20</v>
@@ -6612,25 +6618,27 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="7"/>
+      <c r="A124" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="B124" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E124" s="9" t="n">
-        <v>7.29</v>
+        <v>272.85</v>
       </c>
       <c r="F124" s="9" t="n">
-        <v>102.06</v>
+        <v>545.7</v>
       </c>
       <c r="G124" s="9" t="n">
-        <v>7.29</v>
+        <v>272.85</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="I124" s="9" t="n">
         <v>0.0</v>
@@ -6639,41 +6647,39 @@
         <v>0.0</v>
       </c>
       <c r="K124" s="9" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M124" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N124" s="7"/>
       <c r="O124" s="7" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="7"/>
       <c r="B125" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>245</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C125" s="7"/>
       <c r="D125" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E125" s="9" t="n">
-        <v>20.0</v>
+        <v>7.29</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>40.0</v>
+        <v>102.06</v>
       </c>
       <c r="G125" s="9" t="n">
-        <v>20.0</v>
+        <v>7.29</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="I125" s="9" t="n">
         <v>0.0</v>
@@ -6682,7 +6688,7 @@
         <v>0.0</v>
       </c>
       <c r="K125" s="9" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="L125" s="7" t="s">
         <v>34</v>
@@ -6690,11 +6696,9 @@
       <c r="M125" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N125" s="7" t="s">
-        <v>277</v>
-      </c>
+      <c r="N125" s="7"/>
       <c r="O125" s="7" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126">
@@ -6709,13 +6713,13 @@
         <v>210</v>
       </c>
       <c r="E126" s="9" t="n">
-        <v>10.69</v>
+        <v>20.0</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>32.07</v>
+        <v>40.0</v>
       </c>
       <c r="G126" s="9" t="n">
-        <v>10.69</v>
+        <v>20.0</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>222</v>
@@ -6727,7 +6731,7 @@
         <v>0.0</v>
       </c>
       <c r="K126" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L126" s="7" t="s">
         <v>34</v>
@@ -6743,27 +6747,27 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="7" t="s">
-        <v>227</v>
-      </c>
+      <c r="A127" s="7"/>
       <c r="B127" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C127" s="7"/>
+      <c r="C127" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="D127" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E127" s="9" t="n">
-        <v>6.72</v>
+        <v>10.69</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>20.16</v>
+        <v>21.38</v>
       </c>
       <c r="G127" s="9" t="n">
-        <v>6.72</v>
+        <v>10.69</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="I127" s="9" t="n">
         <v>0.0</v>
@@ -6772,7 +6776,7 @@
         <v>0.0</v>
       </c>
       <c r="K127" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L127" s="7" t="s">
         <v>34</v>
@@ -6780,32 +6784,32 @@
       <c r="M127" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N127" s="7"/>
+      <c r="N127" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="O127" s="7" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>283</v>
-      </c>
+      <c r="C128" s="7"/>
       <c r="D128" s="7" t="s">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="E128" s="9" t="n">
-        <v>11.76</v>
+        <v>6.72</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>58.8</v>
+        <v>20.16</v>
       </c>
       <c r="G128" s="9" t="n">
-        <v>11.76</v>
+        <v>6.72</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>64</v>
@@ -6817,10 +6821,10 @@
         <v>0.0</v>
       </c>
       <c r="K128" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="M128" s="7" t="s">
         <v>20</v>
@@ -6832,23 +6836,25 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="D129" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="E129" s="9" t="n">
-        <v>3.19</v>
+        <v>11.76</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>12.76</v>
+        <v>58.8</v>
       </c>
       <c r="G129" s="9" t="n">
-        <v>3.19</v>
+        <v>11.76</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>64</v>
@@ -6860,10 +6866,10 @@
         <v>0.0</v>
       </c>
       <c r="K129" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="M129" s="7" t="s">
         <v>20</v>
@@ -6882,16 +6888,16 @@
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E130" s="9" t="n">
-        <v>3.83</v>
+        <v>3.19</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>7.66</v>
+        <v>12.76</v>
       </c>
       <c r="G130" s="9" t="n">
-        <v>3.83</v>
+        <v>3.19</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>64</v>
@@ -6903,7 +6909,7 @@
         <v>0.0</v>
       </c>
       <c r="K130" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L130" s="7" t="s">
         <v>56</v>
@@ -6925,19 +6931,19 @@
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E131" s="9" t="n">
-        <v>127.33</v>
+        <v>3.83</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>254.66</v>
+        <v>7.66</v>
       </c>
       <c r="G131" s="9" t="n">
-        <v>127.33</v>
+        <v>3.83</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="I131" s="9" t="n">
         <v>0.0</v>
@@ -6968,7 +6974,7 @@
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E132" s="9" t="n">
         <v>127.33</v>
@@ -7011,16 +7017,16 @@
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E133" s="9" t="n">
-        <v>11.22</v>
+        <v>127.33</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>22.44</v>
+        <v>127.33</v>
       </c>
       <c r="G133" s="9" t="n">
-        <v>11.22</v>
+        <v>127.33</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>222</v>
@@ -7032,7 +7038,7 @@
         <v>0.0</v>
       </c>
       <c r="K133" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L133" s="7" t="s">
         <v>56</v>
@@ -7040,32 +7046,30 @@
       <c r="M133" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N133" s="7" t="s">
-        <v>295</v>
-      </c>
+      <c r="N133" s="7"/>
       <c r="O133" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E134" s="9" t="n">
-        <v>10.15</v>
+        <v>11.22</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>142.1</v>
+        <v>22.44</v>
       </c>
       <c r="G134" s="9" t="n">
-        <v>10.15</v>
+        <v>11.22</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>222</v>
@@ -7077,16 +7081,16 @@
         <v>0.0</v>
       </c>
       <c r="K134" s="9" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="L134" s="7" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="M134" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N134" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O134" s="7" t="s">
         <v>53</v>
@@ -7094,26 +7098,26 @@
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E135" s="9" t="n">
-        <v>10.68</v>
+        <v>10.15</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>64.08</v>
+        <v>131.95</v>
       </c>
       <c r="G135" s="9" t="n">
-        <v>10.68</v>
+        <v>10.15</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="I135" s="9" t="n">
         <v>0.0</v>
@@ -7122,15 +7126,17 @@
         <v>0.0</v>
       </c>
       <c r="K135" s="9" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="M135" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N135" s="7"/>
+      <c r="N135" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="O135" s="7" t="s">
         <v>53</v>
       </c>
@@ -7144,19 +7150,19 @@
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E136" s="9" t="n">
-        <v>46.86</v>
+        <v>10.68</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>93.72</v>
+        <v>64.08</v>
       </c>
       <c r="G136" s="9" t="n">
-        <v>46.86</v>
+        <v>10.68</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>303</v>
+        <v>64</v>
       </c>
       <c r="I136" s="9" t="n">
         <v>0.0</v>
@@ -7165,10 +7171,10 @@
         <v>0.0</v>
       </c>
       <c r="K136" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="L136" s="7" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="M136" s="7" t="s">
         <v>20</v>
@@ -7180,29 +7186,27 @@
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="C137" s="7"/>
+      <c r="D137" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E137" s="9" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="F137" s="9" t="n">
+        <v>93.72</v>
+      </c>
+      <c r="G137" s="9" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="H137" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E137" s="9" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F137" s="9" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="G137" s="9" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="I137" s="9" t="n">
         <v>0.0</v>
       </c>
@@ -7210,10 +7214,10 @@
         <v>0.0</v>
       </c>
       <c r="K137" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M137" s="7" t="s">
         <v>20</v>
@@ -7225,25 +7229,25 @@
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="C138" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="D138" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E138" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>2.28</v>
+        <v>2.73</v>
       </c>
       <c r="G138" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>64</v>
@@ -7255,7 +7259,7 @@
         <v>0.0</v>
       </c>
       <c r="K138" s="9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L138" s="7" t="s">
         <v>34</v>
@@ -7275,21 +7279,23 @@
       <c r="B139" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C139" s="7"/>
+      <c r="C139" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="D139" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E139" s="9" t="n">
-        <v>25.67</v>
+        <v>0.38</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>51.34</v>
+        <v>2.28</v>
       </c>
       <c r="G139" s="9" t="n">
-        <v>25.67</v>
+        <v>0.38</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I139" s="9" t="n">
         <v>0.0</v>
@@ -7298,10 +7304,10 @@
         <v>0.0</v>
       </c>
       <c r="K139" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="M139" s="7" t="s">
         <v>20</v>
@@ -7320,19 +7326,19 @@
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E140" s="9" t="n">
-        <v>12.82</v>
+        <v>25.67</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>64.1</v>
+        <v>51.34</v>
       </c>
       <c r="G140" s="9" t="n">
-        <v>12.82</v>
+        <v>25.67</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I140" s="9" t="n">
         <v>0.0</v>
@@ -7341,10 +7347,10 @@
         <v>0.0</v>
       </c>
       <c r="K140" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="M140" s="7" t="s">
         <v>20</v>
@@ -7363,16 +7369,16 @@
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E141" s="9" t="n">
-        <v>12.29</v>
+        <v>12.82</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>73.74</v>
+        <v>64.1</v>
       </c>
       <c r="G141" s="9" t="n">
-        <v>12.29</v>
+        <v>12.82</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>64</v>
@@ -7384,10 +7390,10 @@
         <v>0.0</v>
       </c>
       <c r="K141" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="M141" s="7" t="s">
         <v>20</v>
@@ -7406,16 +7412,16 @@
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E142" s="9" t="n">
-        <v>14.41</v>
+        <v>12.29</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>28.82</v>
+        <v>61.45</v>
       </c>
       <c r="G142" s="9" t="n">
-        <v>14.41</v>
+        <v>12.29</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>64</v>
@@ -7427,10 +7433,10 @@
         <v>0.0</v>
       </c>
       <c r="K142" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M142" s="7" t="s">
         <v>20</v>
@@ -7447,20 +7453,18 @@
       <c r="B143" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>319</v>
-      </c>
+      <c r="C143" s="7"/>
       <c r="D143" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E143" s="9" t="n">
-        <v>10.15</v>
+        <v>14.41</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>30.45</v>
+        <v>28.82</v>
       </c>
       <c r="G143" s="9" t="n">
-        <v>10.15</v>
+        <v>14.41</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>64</v>
@@ -7472,10 +7476,10 @@
         <v>0.0</v>
       </c>
       <c r="K143" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M143" s="7" t="s">
         <v>20</v>
@@ -7487,25 +7491,25 @@
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="C144" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="D144" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E144" s="9" t="n">
-        <v>0.39</v>
+        <v>10.15</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>8.97</v>
+        <v>30.45</v>
       </c>
       <c r="G144" s="9" t="n">
-        <v>0.39</v>
+        <v>10.15</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>64</v>
@@ -7517,7 +7521,7 @@
         <v>0.0</v>
       </c>
       <c r="K144" s="9" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="L144" s="7" t="s">
         <v>34</v>
@@ -7538,19 +7542,19 @@
         <v>323</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E145" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>3.8</v>
+        <v>8.97</v>
       </c>
       <c r="G145" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>64</v>
@@ -7562,7 +7566,7 @@
         <v>0.0</v>
       </c>
       <c r="K145" s="9" t="n">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="L145" s="7" t="s">
         <v>34</v>
@@ -7582,18 +7586,20 @@
       <c r="B146" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C146" s="7"/>
+      <c r="C146" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="D146" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E146" s="9" t="n">
-        <v>7.46</v>
+        <v>0.38</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>22.38</v>
+        <v>3.8</v>
       </c>
       <c r="G146" s="9" t="n">
-        <v>7.46</v>
+        <v>0.38</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>64</v>
@@ -7605,10 +7611,10 @@
         <v>0.0</v>
       </c>
       <c r="K146" s="9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M146" s="7" t="s">
         <v>20</v>
@@ -7627,16 +7633,16 @@
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E147" s="9" t="n">
-        <v>3.19</v>
+        <v>7.46</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>15.95</v>
+        <v>22.38</v>
       </c>
       <c r="G147" s="9" t="n">
-        <v>3.19</v>
+        <v>7.46</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>64</v>
@@ -7648,10 +7654,10 @@
         <v>0.0</v>
       </c>
       <c r="K147" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L147" s="7" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M147" s="7" t="s">
         <v>20</v>
@@ -7670,16 +7676,16 @@
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E148" s="9" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="F148" s="9" t="n">
-        <v>9.54</v>
+        <v>12.76</v>
       </c>
       <c r="G148" s="9" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>64</v>
@@ -7691,10 +7697,10 @@
         <v>0.0</v>
       </c>
       <c r="K148" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="M148" s="7" t="s">
         <v>20</v>
@@ -7706,25 +7712,23 @@
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>283</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C149" s="7"/>
       <c r="D149" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E149" s="9" t="n">
-        <v>11.76</v>
+        <v>3.18</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>35.28</v>
+        <v>9.54</v>
       </c>
       <c r="G149" s="9" t="n">
-        <v>11.76</v>
+        <v>3.18</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>64</v>
@@ -7739,7 +7743,7 @@
         <v>3.0</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M149" s="7" t="s">
         <v>20</v>
@@ -7751,26 +7755,28 @@
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C150" s="7"/>
+      <c r="C150" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="D150" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="E150" s="9" t="n">
-        <v>3.95</v>
+        <v>11.76</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>7.9</v>
+        <v>35.28</v>
       </c>
       <c r="G150" s="9" t="n">
-        <v>3.95</v>
+        <v>11.76</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>334</v>
+        <v>64</v>
       </c>
       <c r="I150" s="9" t="n">
         <v>0.0</v>
@@ -7779,10 +7785,10 @@
         <v>0.0</v>
       </c>
       <c r="K150" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="M150" s="7" t="s">
         <v>20</v>
@@ -7794,26 +7800,26 @@
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E151" s="9" t="n">
-        <v>8.55</v>
+        <v>3.95</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>128.25</v>
+        <v>7.9</v>
       </c>
       <c r="G151" s="9" t="n">
-        <v>8.55</v>
+        <v>3.95</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I151" s="9" t="n">
         <v>0.0</v>
@@ -7822,10 +7828,10 @@
         <v>0.0</v>
       </c>
       <c r="K151" s="9" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M151" s="7" t="s">
         <v>20</v>
@@ -7842,32 +7848,30 @@
       <c r="B152" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>339</v>
-      </c>
+      <c r="C152" s="7"/>
       <c r="D152" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E152" s="9" t="n">
-        <v>8.24</v>
+        <v>8.55</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>32.96</v>
+        <v>128.25</v>
       </c>
       <c r="G152" s="9" t="n">
-        <v>8.98</v>
+        <v>8.55</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I152" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="J152" s="9" t="n">
-        <v>0.74</v>
+        <v>0.0</v>
       </c>
       <c r="K152" s="9" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="L152" s="7" t="s">
         <v>28</v>
@@ -7877,97 +7881,99 @@
       </c>
       <c r="N152" s="7"/>
       <c r="O152" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>341</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E153" s="9" t="n">
-        <v>5.99</v>
+        <v>8.24</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>47.92</v>
+        <v>32.96</v>
       </c>
       <c r="G153" s="9" t="n">
-        <v>6.59</v>
+        <v>8.98</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I153" s="9" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J153" s="9" t="n">
-        <v>0.0</v>
+        <v>0.74</v>
       </c>
       <c r="K153" s="9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="L153" s="7" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M153" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N153" s="7" t="s">
-        <v>342</v>
-      </c>
+      <c r="N153" s="7"/>
       <c r="O153" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="C154" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E154" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F154" s="9" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="G154" s="9" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I154" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J154" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K154" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L154" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N154" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E154" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="F154" s="9" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="G154" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="I154" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J154" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K154" s="9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L154" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M154" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N154" s="7"/>
       <c r="O154" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155">
@@ -7979,19 +7985,19 @@
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E155" s="9" t="n">
-        <v>12.27</v>
+        <v>9.62</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>36.81</v>
+        <v>28.86</v>
       </c>
       <c r="G155" s="9" t="n">
-        <v>12.27</v>
+        <v>9.62</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I155" s="9" t="n">
         <v>0.0</v>
@@ -8003,7 +8009,7 @@
         <v>3.0</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M155" s="7" t="s">
         <v>20</v>
@@ -8022,19 +8028,19 @@
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E156" s="9" t="n">
-        <v>4.78</v>
+        <v>12.27</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>9.56</v>
+        <v>36.81</v>
       </c>
       <c r="G156" s="9" t="n">
-        <v>4.78</v>
+        <v>12.27</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I156" s="9" t="n">
         <v>0.0</v>
@@ -8043,10 +8049,10 @@
         <v>0.0</v>
       </c>
       <c r="K156" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M156" s="7" t="s">
         <v>20</v>
@@ -8057,25 +8063,27 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="7"/>
+      <c r="A157" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="B157" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E157" s="9" t="n">
-        <v>21.2</v>
+        <v>4.78</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>127.2</v>
+        <v>4.78</v>
       </c>
       <c r="G157" s="9" t="n">
-        <v>21.2</v>
+        <v>4.78</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I157" s="9" t="n">
         <v>0.0</v>
@@ -8084,10 +8092,10 @@
         <v>0.0</v>
       </c>
       <c r="K157" s="9" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="M157" s="7" t="s">
         <v>20</v>
@@ -8098,27 +8106,25 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="7" t="s">
-        <v>350</v>
-      </c>
+      <c r="A158" s="7"/>
       <c r="B158" s="7" t="s">
         <v>351</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E158" s="9" t="n">
-        <v>10.56</v>
+        <v>21.2</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>42.24</v>
+        <v>127.2</v>
       </c>
       <c r="G158" s="9" t="n">
-        <v>10.56</v>
+        <v>21.2</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I158" s="9" t="n">
         <v>0.0</v>
@@ -8127,17 +8133,17 @@
         <v>0.0</v>
       </c>
       <c r="K158" s="9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="M158" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N158" s="7"/>
       <c r="O158" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159">
@@ -8149,19 +8155,19 @@
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E159" s="9" t="n">
-        <v>21.39</v>
+        <v>10.56</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>85.56</v>
+        <v>42.24</v>
       </c>
       <c r="G159" s="9" t="n">
-        <v>21.39</v>
+        <v>10.56</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="I159" s="9" t="n">
         <v>0.0</v>
@@ -8173,40 +8179,38 @@
         <v>4.0</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M159" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N159" s="7" t="s">
-        <v>355</v>
-      </c>
+      <c r="N159" s="7"/>
       <c r="O159" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E160" s="9" t="n">
-        <v>6.41</v>
+        <v>21.39</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>32.05</v>
+        <v>85.56</v>
       </c>
       <c r="G160" s="9" t="n">
-        <v>6.41</v>
+        <v>21.39</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="I160" s="9" t="n">
         <v>0.0</v>
@@ -8215,15 +8219,17 @@
         <v>0.0</v>
       </c>
       <c r="K160" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M160" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N160" s="7"/>
+      <c r="N160" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="O160" s="7" t="s">
         <v>53</v>
       </c>
@@ -8237,19 +8243,19 @@
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E161" s="9" t="n">
-        <v>11.76</v>
+        <v>6.41</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>23.52</v>
+        <v>32.05</v>
       </c>
       <c r="G161" s="9" t="n">
-        <v>11.76</v>
+        <v>6.41</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I161" s="9" t="n">
         <v>0.0</v>
@@ -8258,10 +8264,10 @@
         <v>0.0</v>
       </c>
       <c r="K161" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M161" s="7" t="s">
         <v>20</v>
@@ -8280,19 +8286,19 @@
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E162" s="9" t="n">
-        <v>6.41</v>
+        <v>11.76</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>25.64</v>
+        <v>23.52</v>
       </c>
       <c r="G162" s="9" t="n">
-        <v>6.41</v>
+        <v>11.76</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I162" s="9" t="n">
         <v>0.0</v>
@@ -8301,10 +8307,10 @@
         <v>0.0</v>
       </c>
       <c r="K162" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L162" s="7" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="M162" s="7" t="s">
         <v>20</v>
@@ -8321,23 +8327,21 @@
       <c r="B163" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="C163" s="7"/>
       <c r="D163" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E163" s="9" t="n">
-        <v>1.31</v>
+        <v>6.41</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>5.24</v>
+        <v>19.23</v>
       </c>
       <c r="G163" s="9" t="n">
-        <v>1.31</v>
+        <v>6.41</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I163" s="9" t="n">
         <v>0.0</v>
@@ -8346,7 +8350,7 @@
         <v>0.0</v>
       </c>
       <c r="K163" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L163" s="7" t="s">
         <v>129</v>
@@ -8356,31 +8360,33 @@
       </c>
       <c r="N163" s="7"/>
       <c r="O163" s="7" t="s">
-        <v>364</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C164" s="7"/>
+      <c r="C164" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="D164" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E164" s="9" t="n">
-        <v>9.61</v>
+        <v>1.31</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>48.05</v>
+        <v>2.62</v>
       </c>
       <c r="G164" s="9" t="n">
-        <v>9.61</v>
+        <v>1.31</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I164" s="9" t="n">
         <v>0.0</v>
@@ -8389,17 +8395,17 @@
         <v>0.0</v>
       </c>
       <c r="K164" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L164" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="M164" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N164" s="7"/>
       <c r="O164" s="7" t="s">
-        <v>53</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165">
@@ -8409,23 +8415,21 @@
       <c r="B165" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="C165" s="7"/>
       <c r="D165" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E165" s="9" t="n">
-        <v>4.26</v>
+        <v>9.61</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>25.56</v>
+        <v>48.05</v>
       </c>
       <c r="G165" s="9" t="n">
-        <v>4.26</v>
+        <v>9.61</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I165" s="9" t="n">
         <v>0.0</v>
@@ -8434,10 +8438,10 @@
         <v>0.0</v>
       </c>
       <c r="K165" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M165" s="7" t="s">
         <v>20</v>
@@ -8454,21 +8458,23 @@
       <c r="B166" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C166" s="7"/>
+      <c r="C166" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D166" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E166" s="9" t="n">
-        <v>37.66</v>
+        <v>4.26</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>150.64</v>
+        <v>25.56</v>
       </c>
       <c r="G166" s="9" t="n">
-        <v>37.66</v>
+        <v>4.26</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I166" s="9" t="n">
         <v>0.0</v>
@@ -8477,17 +8483,17 @@
         <v>0.0</v>
       </c>
       <c r="K166" s="9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="M166" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N166" s="7"/>
       <c r="O166" s="7" t="s">
-        <v>364</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167">
@@ -8497,23 +8503,21 @@
       <c r="B167" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="C167" s="7"/>
       <c r="D167" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E167" s="9" t="n">
-        <v>2.32</v>
+        <v>37.66</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>18.56</v>
+        <v>150.64</v>
       </c>
       <c r="G167" s="9" t="n">
-        <v>2.32</v>
+        <v>37.66</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I167" s="9" t="n">
         <v>0.0</v>
@@ -8522,17 +8526,17 @@
         <v>0.0</v>
       </c>
       <c r="K167" s="9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="L167" s="7" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M167" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N167" s="7"/>
       <c r="O167" s="7" t="s">
-        <v>53</v>
+        <v>366</v>
       </c>
     </row>
     <row r="168">
@@ -8542,21 +8546,23 @@
       <c r="B168" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C168" s="7"/>
+      <c r="C168" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="D168" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E168" s="9" t="n">
-        <v>9.62</v>
+        <v>2.32</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>19.24</v>
+        <v>18.56</v>
       </c>
       <c r="G168" s="9" t="n">
-        <v>9.62</v>
+        <v>2.32</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I168" s="9" t="n">
         <v>0.0</v>
@@ -8565,10 +8571,10 @@
         <v>0.0</v>
       </c>
       <c r="K168" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="L168" s="7" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="M168" s="7" t="s">
         <v>20</v>
@@ -8587,19 +8593,19 @@
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E169" s="9" t="n">
-        <v>19.25</v>
+        <v>9.62</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>77.0</v>
+        <v>19.24</v>
       </c>
       <c r="G169" s="9" t="n">
-        <v>19.25</v>
+        <v>9.62</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I169" s="9" t="n">
         <v>0.0</v>
@@ -8608,10 +8614,10 @@
         <v>0.0</v>
       </c>
       <c r="K169" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L169" s="7" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="M169" s="7" t="s">
         <v>20</v>
@@ -8628,23 +8634,21 @@
       <c r="B170" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C170" s="7" t="s">
-        <v>379</v>
-      </c>
+      <c r="C170" s="7"/>
       <c r="D170" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E170" s="9" t="n">
-        <v>1.28</v>
+        <v>19.25</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>7.68</v>
+        <v>77.0</v>
       </c>
       <c r="G170" s="9" t="n">
-        <v>1.28</v>
+        <v>19.25</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I170" s="9" t="n">
         <v>0.0</v>
@@ -8653,41 +8657,43 @@
         <v>0.0</v>
       </c>
       <c r="K170" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L170" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="M170" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N170" s="7"/>
       <c r="O170" s="7" t="s">
-        <v>364</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="C171" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C171" s="7"/>
       <c r="D171" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E171" s="9" t="n">
-        <v>5.55</v>
+        <v>1.28</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>11.1</v>
+        <v>7.68</v>
       </c>
       <c r="G171" s="9" t="n">
-        <v>5.55</v>
+        <v>1.28</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="I171" s="9" t="n">
         <v>0.0</v>
@@ -8696,43 +8702,41 @@
         <v>0.0</v>
       </c>
       <c r="K171" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="L171" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M171" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N171" s="7" t="s">
-        <v>382</v>
-      </c>
+      <c r="N171" s="7"/>
       <c r="O171" s="7" t="s">
-        <v>53</v>
+        <v>366</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E172" s="9" t="n">
-        <v>2.45</v>
+        <v>5.55</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>9.8</v>
+        <v>11.1</v>
       </c>
       <c r="G172" s="9" t="n">
-        <v>2.45</v>
+        <v>5.55</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="I172" s="9" t="n">
         <v>0.0</v>
@@ -8741,41 +8745,43 @@
         <v>0.0</v>
       </c>
       <c r="K172" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L172" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M172" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N172" s="7"/>
+      <c r="N172" s="7" t="s">
+        <v>384</v>
+      </c>
       <c r="O172" s="7" t="s">
-        <v>385</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E173" s="9" t="n">
-        <v>7.48</v>
+        <v>2.45</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>14.96</v>
+        <v>9.8</v>
       </c>
       <c r="G173" s="9" t="n">
-        <v>7.48</v>
+        <v>2.45</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I173" s="9" t="n">
         <v>0.0</v>
@@ -8784,17 +8790,17 @@
         <v>0.0</v>
       </c>
       <c r="K173" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L173" s="7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M173" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N173" s="7"/>
       <c r="O173" s="7" t="s">
-        <v>53</v>
+        <v>387</v>
       </c>
     </row>
     <row r="174">
@@ -8806,7 +8812,7 @@
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E174" s="9" t="n">
         <v>7.48</v>
@@ -8818,7 +8824,7 @@
         <v>7.48</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I174" s="9" t="n">
         <v>0.0</v>
@@ -8849,19 +8855,19 @@
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E175" s="9" t="n">
-        <v>73.83</v>
+        <v>7.48</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>147.66</v>
+        <v>14.96</v>
       </c>
       <c r="G175" s="9" t="n">
-        <v>73.83</v>
+        <v>7.48</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="I175" s="9" t="n">
         <v>0.0</v>
@@ -8892,19 +8898,19 @@
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E176" s="9" t="n">
-        <v>5.34</v>
+        <v>73.83</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>26.7</v>
+        <v>147.66</v>
       </c>
       <c r="G176" s="9" t="n">
-        <v>5.34</v>
+        <v>73.83</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I176" s="9" t="n">
         <v>0.0</v>
@@ -8913,43 +8919,41 @@
         <v>0.0</v>
       </c>
       <c r="K176" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M176" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N176" s="7" t="s">
-        <v>394</v>
-      </c>
+      <c r="N176" s="7"/>
       <c r="O176" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E177" s="9" t="n">
-        <v>11.76</v>
+        <v>5.34</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>47.04</v>
+        <v>26.7</v>
       </c>
       <c r="G177" s="9" t="n">
-        <v>11.76</v>
+        <v>5.34</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="I177" s="9" t="n">
         <v>0.0</v>
@@ -8958,15 +8962,17 @@
         <v>0.0</v>
       </c>
       <c r="K177" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L177" s="7" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M177" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N177" s="7"/>
+      <c r="N177" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="O177" s="7" t="s">
         <v>53</v>
       </c>
@@ -8980,19 +8986,19 @@
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E178" s="9" t="n">
-        <v>105.93</v>
+        <v>11.76</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>1059.3</v>
+        <v>47.04</v>
       </c>
       <c r="G178" s="9" t="n">
-        <v>105.93</v>
+        <v>11.76</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="I178" s="9" t="n">
         <v>0.0</v>
@@ -9001,10 +9007,10 @@
         <v>0.0</v>
       </c>
       <c r="K178" s="9" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="L178" s="7" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="M178" s="7" t="s">
         <v>20</v>
@@ -9023,19 +9029,19 @@
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E179" s="9" t="n">
-        <v>6.4</v>
+        <v>105.93</v>
       </c>
       <c r="F179" s="9" t="n">
-        <v>96.0</v>
+        <v>953.37</v>
       </c>
       <c r="G179" s="9" t="n">
-        <v>6.4</v>
+        <v>105.93</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="I179" s="9" t="n">
         <v>0.0</v>
@@ -9044,10 +9050,10 @@
         <v>0.0</v>
       </c>
       <c r="K179" s="9" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="L179" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M179" s="7" t="s">
         <v>20</v>
@@ -9064,23 +9070,21 @@
       <c r="B180" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>179</v>
-      </c>
+      <c r="C180" s="7"/>
       <c r="D180" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E180" s="9" t="n">
-        <v>2.66</v>
+        <v>6.4</v>
       </c>
       <c r="F180" s="9" t="n">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
       <c r="G180" s="9" t="n">
-        <v>2.66</v>
+        <v>6.4</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I180" s="9" t="n">
         <v>0.0</v>
@@ -9089,10 +9093,10 @@
         <v>0.0</v>
       </c>
       <c r="K180" s="9" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="L180" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M180" s="7" t="s">
         <v>20</v>
@@ -9104,28 +9108,28 @@
     </row>
     <row r="181">
       <c r="A181" s="7" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>179</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E181" s="9" t="n">
-        <v>5.32</v>
+        <v>2.66</v>
       </c>
       <c r="F181" s="9" t="n">
-        <v>5.32</v>
+        <v>0.0</v>
       </c>
       <c r="G181" s="9" t="n">
-        <v>5.32</v>
+        <v>2.66</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I181" s="9" t="n">
         <v>0.0</v>
@@ -9134,7 +9138,7 @@
         <v>0.0</v>
       </c>
       <c r="K181" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L181" s="7" t="s">
         <v>23</v>
@@ -9149,26 +9153,28 @@
     </row>
     <row r="182">
       <c r="A182" s="7" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C182" s="7"/>
+      <c r="C182" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="D182" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E182" s="9" t="n">
-        <v>2.97</v>
+        <v>5.32</v>
       </c>
       <c r="F182" s="9" t="n">
-        <v>0.0</v>
+        <v>5.32</v>
       </c>
       <c r="G182" s="9" t="n">
-        <v>2.97</v>
+        <v>5.32</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I182" s="9" t="n">
         <v>0.0</v>
@@ -9177,10 +9183,10 @@
         <v>0.0</v>
       </c>
       <c r="K182" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L182" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M182" s="7" t="s">
         <v>20</v>
@@ -9192,26 +9198,26 @@
     </row>
     <row r="183">
       <c r="A183" s="7" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E183" s="9" t="n">
-        <v>5.99</v>
+        <v>2.97</v>
       </c>
       <c r="F183" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G183" s="9" t="n">
-        <v>5.99</v>
+        <v>2.97</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I183" s="9" t="n">
         <v>0.0</v>
@@ -9223,101 +9229,144 @@
         <v>0.0</v>
       </c>
       <c r="L183" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="M183" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N183" s="7"/>
       <c r="O183" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E184" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F184" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G184" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I184" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J184" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K184" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L184" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M184" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E185" s="9" t="n">
         <v>8.24</v>
       </c>
-      <c r="F184" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G184" s="9" t="n">
+      <c r="F185" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G185" s="9" t="n">
         <v>8.24</v>
       </c>
-      <c r="H184" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="I184" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J184" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K184" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L184" s="7" t="s">
+      <c r="H185" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I185" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J185" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K185" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L185" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M184" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N184" s="7"/>
-      <c r="O184" s="7"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10" t="n">
-        <v>84672.15</v>
-      </c>
-      <c r="G185" s="10"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="10"/>
-      <c r="J185" s="10"/>
-      <c r="K185" s="10" t="n">
-        <v>1019.0</v>
-      </c>
-      <c r="L185" s="8"/>
-      <c r="M185" s="8"/>
-      <c r="N185" s="8"/>
-      <c r="O185" s="8"/>
-    </row>
-    <row r="186"/>
-    <row r="187">
-      <c r="A187" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10" t="n">
-        <v>84672.15</v>
-      </c>
-      <c r="G187" s="10"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="10"/>
-      <c r="J187" s="10"/>
-      <c r="K187" s="10" t="n">
-        <v>1019.0</v>
-      </c>
-      <c r="L187" s="8"/>
-      <c r="M187" s="8"/>
-      <c r="N187" s="8"/>
-      <c r="O187" s="8"/>
+      <c r="M185" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10" t="n">
+        <v>81625.11</v>
+      </c>
+      <c r="G186" s="10"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+      <c r="K186" s="10" t="n">
+        <v>1006.0</v>
+      </c>
+      <c r="L186" s="8"/>
+      <c r="M186" s="8"/>
+      <c r="N186" s="8"/>
+      <c r="O186" s="8"/>
+    </row>
+    <row r="187"/>
+    <row r="188">
+      <c r="A188" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10" t="n">
+        <v>81625.11</v>
+      </c>
+      <c r="G188" s="10"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+      <c r="K188" s="10" t="n">
+        <v>1006.0</v>
+      </c>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
+      <c r="N188" s="8"/>
+      <c r="O188" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
